--- a/Document/uc.xlsx
+++ b/Document/uc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuan vinh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuan vinh\Documents\GitHub\ISDProject\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7260"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -325,9 +325,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -337,6 +334,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -344,10 +348,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,52 +654,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -708,238 +708,238 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Document/uc.xlsx
+++ b/Document/uc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -638,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
